--- a/globals.xlsx
+++ b/globals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -34,7 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -48,7 +48,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -56,7 +56,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,7 +70,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -78,7 +78,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,7 +237,7 @@
     <t>條件主體(1:自身;2:怪物ID;3:英雄類型;4:怪物類型;5:路徑;6:龍寶寶;)</t>
   </si>
   <si>
-    <t>conditiontype</t>
+    <t>conditionpattern</t>
   </si>
   <si>
     <t>條件類型</t>
@@ -270,7 +270,7 @@
     <t>主體(1:自身;2:怪物ID;)</t>
   </si>
   <si>
-    <t>eventtype</t>
+    <t>eventpattern</t>
   </si>
   <si>
     <t>事件</t>
@@ -507,7 +507,7 @@
     <t>对应标签页的这个标签</t>
   </si>
   <si>
-    <t>type</t>
+    <t>pattern</t>
   </si>
   <si>
     <t>修改类型</t>
@@ -732,7 +732,7 @@
     <t>消费数值</t>
   </si>
   <si>
-    <t>TypeRandom</t>
+    <t>typeRandom</t>
   </si>
   <si>
     <t>属性id</t>
@@ -755,10 +755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -783,8 +783,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,15 +821,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -816,9 +845,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,44 +881,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,16 +905,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,19 +920,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -976,7 +976,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1054,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,49 +1120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,85 +1138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,10 +1169,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1194,6 +1192,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1204,15 +1226,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,32 +1248,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,31 +1269,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,115 +1302,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1766,8 +1766,8 @@
   <sheetPr/>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="189">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>路線Index</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试用</t>
   </si>
   <si>
     <t>time</t>
@@ -755,9 +761,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -782,8 +788,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -798,78 +863,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,17 +886,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,6 +897,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +982,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,13 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,49 +1096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,73 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,15 +1169,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,7 +1207,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,6 +1245,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1244,173 +1270,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1764,10 +1770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1883,10 +1889,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1894,93 +1900,96 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1988,15 +1997,12 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -2010,7 +2016,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -2022,31 +2028,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -2054,59 +2063,53 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
@@ -2114,10 +2117,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -2126,32 +2129,32 @@
         <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2160,77 +2163,80 @@
         <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
+      <c r="G31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
@@ -2244,100 +2250,97 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
       </c>
       <c r="G39" t="s">
         <v>55</v>
@@ -2345,38 +2348,41 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="G41" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>89</v>
@@ -2390,105 +2396,105 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
         <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>100</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>104</v>
@@ -2496,21 +2502,21 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>105</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>108</v>
@@ -2521,15 +2527,10 @@
       <c r="E52" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
@@ -2540,72 +2541,77 @@
       <c r="E53" t="s">
         <v>111</v>
       </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
         <v>117</v>
@@ -2613,13 +2619,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
         <v>119</v>
@@ -2627,481 +2633,481 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
         <v>121</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="3" t="s">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" ht="27" spans="1:7">
-      <c r="A74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="G74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="6" t="s">
+    </row>
+    <row r="75" ht="27" spans="1:7">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
         <v>144</v>
       </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="G75" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
         <v>147</v>
       </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="G76" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G76" s="3" t="s">
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
-      </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="7" t="s">
+      <c r="G77" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="7" t="s">
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" ht="27" spans="1:7">
-      <c r="A79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" ht="27" spans="1:7">
+      <c r="A80" t="s">
         <v>153</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="5" t="s">
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="G80" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
         <v>162</v>
       </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="G82" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="G82" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>166</v>
       </c>
-      <c r="G83" t="s">
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="s">
+      <c r="G84" t="s">
         <v>169</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:7">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+    <row r="88" s="1" customFormat="1" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>176</v>
       </c>
       <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
         <v>179</v>
       </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
         <v>181</v>
-      </c>
-      <c r="B91" t="s">
-        <v>35</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -3112,24 +3118,24 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
       </c>
       <c r="E92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>184</v>
-      </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -3137,22 +3143,36 @@
       <c r="E93" t="s">
         <v>185</v>
       </c>
-      <c r="G93" t="s">
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="G94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
+    <sheet name="@Outputs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -755,16 +756,22 @@
   <si>
     <t>如果对应的属性是固定值，则固定加成；如果对应的属性是比例值，则比例加成</t>
   </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>[".lua"]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -789,6 +796,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -797,67 +811,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,13 +825,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -894,6 +855,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,24 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +989,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,157 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1195,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1207,40 +1253,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,17 +1269,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,148 +1282,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,13 +1779,13 @@
   <sheetPr/>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="47.2166666666667" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
@@ -3181,4 +3188,33 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/globals.xlsx
+++ b/globals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="23490" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="198">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -757,10 +757,31 @@
     <t>如果对应的属性是固定值，则固定加成；如果对应的属性是比例值，则比例加成</t>
   </si>
   <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>[".lua"]</t>
+    <t>#这是注释</t>
+  </si>
+  <si>
+    <t>#这也是注释</t>
+  </si>
+  <si>
+    <t>FightCommand</t>
+  </si>
+  <si>
+    <t>[".lua", ".cs", ".cpp", ".bin"]</t>
+  </si>
+  <si>
+    <t>GoodsCommand</t>
+  </si>
+  <si>
+    <t>HeroCommand</t>
+  </si>
+  <si>
+    <t>[".cs", ".cpp", ".bin"]</t>
+  </si>
+  <si>
+    <t>SealwareCommand</t>
+  </si>
+  <si>
+    <t>[".lua", ".go", ".json"]</t>
   </si>
 </sst>
 </file>
@@ -768,10 +789,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -796,7 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,17 +831,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,7 +846,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,9 +877,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,9 +891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,26 +906,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,8 +930,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,7 +947,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,7 +1010,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,157 +1166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,6 +1201,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1198,38 +1234,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,7 +1259,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,162 +1298,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3193,16 +3214,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3213,6 +3234,38 @@
         <v>190</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="9390" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -789,10 +789,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -830,51 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -892,6 +847,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -899,7 +861,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -914,16 +891,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -940,21 +954,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,13 +1010,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,19 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,49 +1130,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,73 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,17 +1201,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,8 +1228,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,8 +1251,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1267,8 +1263,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,13 +1284,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,148 +1303,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3217,7 +3217,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="200">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -783,16 +783,22 @@
   <si>
     <t>[".lua", ".go", ".json"]</t>
   </si>
+  <si>
+    <t>TestCommand2</t>
+  </si>
+  <si>
+    <t>[".lua"]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -816,8 +822,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,22 +851,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -853,82 +858,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -944,6 +874,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -954,7 +946,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,7 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,7 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1058,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,49 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,7 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,31 +1148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,31 +1172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,6 +1240,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1245,17 +1266,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,17 +1294,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,148 +1309,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3214,13 +3220,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
@@ -3266,6 +3272,14 @@
         <v>197</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
